--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_4_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_4_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1154951.956707123</v>
+        <v>-1156932.873287548</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.06655361</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14755729.43696493</v>
+        <v>14764178.64187869</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>196.9146239083529</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>302.733384451585</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>94.65568569260671</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>219.4182428509135</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>91.72166227029862</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>150.8397700069002</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>140.1336128527356</v>
       </c>
       <c r="V7" t="n">
-        <v>129.7411677825657</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>128.5382398043501</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>168.6983378044499</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.30079766335525</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>149.8794763036716</v>
       </c>
     </row>
     <row r="11">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>76.56542964295322</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>108.3315462922371</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>62.54556264935805</v>
       </c>
       <c r="D16" t="n">
-        <v>137.2353514512489</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>237.3965091869249</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>131.792578023987</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>61.10263413661576</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>200.1261982754666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>124.6501923679404</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>156.5683910710459</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>26.12759070766483</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>131.6781577333169</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801228</v>
+        <v>91.23070601801197</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437436</v>
+        <v>0.02976576477922153</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897921</v>
+        <v>93.71057173897893</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571478</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523579</v>
+        <v>54.76109577523559</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>122.9492028832866</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527402</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3123,10 +3123,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262914</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014417</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.507043867063</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522969</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898745</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857197</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692879</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329086</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373747</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789569</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463141</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287489</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689369</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941876</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069506</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593968</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224544</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527402</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,10 +3360,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262914</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014417</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.507043867063</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522969</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898745</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857197</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692879</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329086</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337372</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789569</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463141</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287488</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689369</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941876</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069506</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593968</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224544</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3597,10 +3597,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262914</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014416</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.507043867063</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.700090052297</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898749</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857202</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692883</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329091</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373725</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789573</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463145</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539628</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287489</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941877</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069507</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593968</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224545</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274006</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3834,10 +3834,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262912</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9013320701441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.507043867063</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.700090052297</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898755</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857207</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692889</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329096</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337373</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789577</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463146</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539628</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287489</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689371</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941877</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069507</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593969</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224545</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1193.238943380987</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C2" t="n">
-        <v>824.2764264405757</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="D2" t="n">
-        <v>824.2764264405757</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="E2" t="n">
-        <v>824.2764264405757</v>
+        <v>1097.914903999813</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>686.9289992102051</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1583.378275356799</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y2" t="n">
-        <v>1193.238943380987</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.4943954681378</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C4" t="n">
-        <v>506.4943954681378</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="D4" t="n">
-        <v>506.4943954681378</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4528,10 +4528,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>506.4943954681378</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>506.4943954681378</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.00952757579</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942546</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>1565.148859551602</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>1565.148859551602</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y5" t="n">
-        <v>1175.00952757579</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4756,19 +4756,19 @@
         <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="V7" t="n">
-        <v>369.7691122461817</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="W7" t="n">
-        <v>369.7691122461817</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X7" t="n">
-        <v>369.7691122461817</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.7691122461817</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2567.312485155243</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2348.677818127306</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2348.677818127306</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="V8" t="n">
-        <v>2348.677818127306</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.909162857192</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.909162857192</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857192</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005476</v>
+        <v>500.139433308417</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.6519168570175</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="11">
@@ -5030,22 +5030,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822455</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,10 +5057,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>261.8048459311032</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>410.874530133163</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.771599890052</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3721.107993746785</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>3721.107993746785</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>3471.538086380587</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>4637.069157803798</v>
+        <v>1421.577452736738</v>
       </c>
       <c r="U13" t="n">
-        <v>4347.940519017357</v>
+        <v>1132.448813950296</v>
       </c>
       <c r="V13" t="n">
-        <v>4238.514714681764</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="W13" t="n">
-        <v>3949.097544644803</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X13" t="n">
-        <v>3721.107993746785</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y13" t="n">
-        <v>3721.107993746785</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.5778825909698</v>
+        <v>310.8124359217951</v>
       </c>
       <c r="C16" t="n">
-        <v>530.6416996630629</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344999</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.5778825909698</v>
+        <v>492.4609007520348</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5595,19 +5595,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>563.46123033816</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102531</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102531</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102531</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>835.416391538794</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>563.46123033816</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>563.46123033816</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>672.4909068465488</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C22" t="n">
-        <v>503.5547239186419</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D22" t="n">
-        <v>503.5547239186419</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362488</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5938,22 +5938,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909233</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909233</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>1164.055751909233</v>
+        <v>1036.992695872058</v>
       </c>
       <c r="W22" t="n">
-        <v>874.6385818722727</v>
+        <v>747.5755258350974</v>
       </c>
       <c r="X22" t="n">
-        <v>874.6385818722727</v>
+        <v>747.5755258350974</v>
       </c>
       <c r="Y22" t="n">
-        <v>672.4909068465488</v>
+        <v>747.5755258350974</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.0201325405891</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405892</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405892</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581961</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1373.006985337761</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1373.006985337761</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.878346551319</v>
+        <v>1340.766380587149</v>
       </c>
       <c r="V25" t="n">
-        <v>1083.878346551319</v>
+        <v>1086.081892381262</v>
       </c>
       <c r="W25" t="n">
-        <v>794.4611765143587</v>
+        <v>796.6647223443018</v>
       </c>
       <c r="X25" t="n">
-        <v>794.4611765143587</v>
+        <v>796.6647223443018</v>
       </c>
       <c r="Y25" t="n">
-        <v>573.6685973708287</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6306,22 +6306,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881927</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028581</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028581</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>123.6085972256039</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1031.04751177457</v>
+        <v>986.0022165609665</v>
       </c>
       <c r="V28" t="n">
-        <v>776.3630235686834</v>
+        <v>731.3177283550797</v>
       </c>
       <c r="W28" t="n">
-        <v>486.9458535317228</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>486.9458535317228</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881927</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6525,37 +6525,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256437</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701569</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766216</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441945</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.623401105978</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324676</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>487.5700015473431</v>
+        <v>565.4200295030897</v>
       </c>
       <c r="C31" t="n">
-        <v>487.5700015473431</v>
+        <v>452.2447118565535</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473431</v>
+        <v>452.2447118565535</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463205</v>
+        <v>360.0924835555316</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297807</v>
+        <v>360.0624171264617</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309719</v>
+        <v>247.6479607276532</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864676</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933507</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667516</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962059</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>902.6804289818954</v>
       </c>
       <c r="X31" t="n">
-        <v>778.4893149583716</v>
+        <v>730.4517433652489</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.4576010962121</v>
+        <v>565.4200295030897</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822456</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823799</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514113</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795212</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515105</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619138</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643336</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899141</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,58 +6753,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.431259052578</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>812.978229771451</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101997</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047441</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316291</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358144</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675022</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126489</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.60797781471</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211756</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1427.741252113639</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1757.603879777674</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278211</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060422</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376137</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376137</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459912</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
         <v>2288.75278438369</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108349</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229689</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850674</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083216</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504521</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103132</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254963</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649705</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860498</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116391</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350132</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.23682618416</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.52084038466</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986527</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.16590894212</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771667</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025266</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.02763985942</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.4305608625</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045232</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010338</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6923,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822456</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823799</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514113</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795212</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515105</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619138</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643336</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899141</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207845</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,58 +6990,58 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.431259052578</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.978229771451</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101997</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047441</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316291</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358144</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675022</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.598437470158</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227048</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171047</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389746</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060422</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376137</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376137</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459912</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
         <v>2288.75278438369</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108353</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222969</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850674</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083217</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504521</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103136</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254962</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649705</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860498</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116391</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350133</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.23682618416</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384661</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986527</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942121</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771667</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025266</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.02763985942</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.4305608625</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045237</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010343</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823799</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514114</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795212</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515105</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619121</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643319</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7227,58 +7227,58 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.431259052578</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.978229771451</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101997</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047441</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316291</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358144</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675022</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126489</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571628</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636285</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643592</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307627</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085864</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821613</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376137</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459912</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
         <v>2288.75278438369</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108347</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229686</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506736</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083212</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254962</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649705</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860498</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116391</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350132</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.23682618416</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.52084038466</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986527</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.16590894212</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771667</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025266</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859419</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.4305608625</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004523</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010336</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805459</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822455</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823802</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.284191751389</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.88834779519</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515083</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619117</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643316</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899122</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207827</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7464,58 +7464,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525777</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714507</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101995</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.806365104744</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.271807131629</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358143</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675021</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256444</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277057</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.6749225845963</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.99505586456</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528596</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085863</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821612</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376137</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459912</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
         <v>2288.75278438369</v>
@@ -7527,7 +7527,7 @@
         <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043132</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
         <v>1363.4068948376</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108352</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229689</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506739</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083217</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254964</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649707</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860499</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116391</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350133</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184161</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384661</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986528</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942121</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771668</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025267</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.02763985942</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.4305608625</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045237</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010342</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670534</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208171</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>1108.225203574964</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1972.744019228319</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2506.275923900243</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3132.606078758241</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>4012.570729087696</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4407.345095444874</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208804</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587479</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509031</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312503</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439157</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.171224833397</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>668.6846748535634</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>566.017668389301</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549812</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051442</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>245.8606895279361</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>439.3376773609111</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618138</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730927</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133949</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949852</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155634</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>124.340078086323</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>308.1251096272033</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>87.16935584025396</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>145.2351313103795</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,19 +9723,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>230.7151863772031</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>392.1113620226438</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928253</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>96.03744927814222</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906598868</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,28 +10428,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>87.16935584024128</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544517</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987296458</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>43.65987261461214</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544517</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
-        <v>437.346924411967</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>169.286315716705</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711415</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>189.0022427662305</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>80.3548866658748</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675376</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>144.982131415436</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>143.8060970315909</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>104.7012584492698</v>
       </c>
       <c r="D16" t="n">
-        <v>11.38012156696348</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.84084321165247</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>93.91707736505012</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>191.0350091872122</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.45845507662818</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>73.27061761566276</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>129.6689613275315</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>122.7862376598713</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>154.5591946652607</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965547</v>
+        <v>93.41221638965516</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.18802562959482</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571503</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>47.55719587719366</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1286499.206001248</v>
+        <v>1301130.495151366</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26317,7 @@
         <v>164208.3539728566</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
         <v>156411.6238950835</v>
@@ -26329,7 +26329,7 @@
         <v>156411.6238950835</v>
       </c>
       <c r="H2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="I2" t="n">
         <v>156411.6238950835</v>
@@ -26338,19 +26338,19 @@
         <v>156411.6238950835</v>
       </c>
       <c r="K2" t="n">
-        <v>162728.854938108</v>
+        <v>162728.8549381079</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="M2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="N2" t="n">
         <v>164208.3539728566</v>
       </c>
-      <c r="M2" t="n">
-        <v>164208.3539728566</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="O2" t="n">
-        <v>164208.3539728565</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728567</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284658</v>
+        <v>44162.60530284575</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086835</v>
+        <v>10342.90680086677</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755712</v>
+        <v>44162.60530284575</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26442,22 +26442,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649872</v>
+        <v>47468.1680664989</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.33279362252</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362252</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362248</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362242</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.3327936228</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002543</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002543</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002543</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002543</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>-93141.50141237903</v>
       </c>
       <c r="D6" t="n">
-        <v>-93141.50141237902</v>
+        <v>-93141.50141237893</v>
       </c>
       <c r="E6" t="n">
-        <v>-490039.2840828315</v>
+        <v>-490136.7432088036</v>
       </c>
       <c r="F6" t="n">
-        <v>35120.75239406453</v>
+        <v>35023.29326809237</v>
       </c>
       <c r="G6" t="n">
-        <v>35120.75239406456</v>
+        <v>35023.29326809238</v>
       </c>
       <c r="H6" t="n">
-        <v>35120.75239406452</v>
+        <v>35023.29326809233</v>
       </c>
       <c r="I6" t="n">
-        <v>35120.7523940645</v>
+        <v>35023.29326809237</v>
       </c>
       <c r="J6" t="n">
-        <v>-141302.4667985283</v>
+        <v>-141399.9259245006</v>
       </c>
       <c r="K6" t="n">
-        <v>-25530.12696146013</v>
+        <v>-25548.62069939389</v>
       </c>
       <c r="L6" t="n">
-        <v>4428.008558340283</v>
+        <v>4428.008558341695</v>
       </c>
       <c r="M6" t="n">
-        <v>-120030.0998746285</v>
+        <v>-120030.0998746286</v>
       </c>
       <c r="N6" t="n">
-        <v>14770.91535920883</v>
+        <v>14770.91535920842</v>
       </c>
       <c r="O6" t="n">
-        <v>14770.91535920868</v>
+        <v>14770.91535920852</v>
       </c>
       <c r="P6" t="n">
-        <v>-167401.2778653611</v>
+        <v>-29391.68994363723</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,7 +26750,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541038</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541038</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541039</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541047</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010835</v>
+        <v>12.92863350108346</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750919</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,10 +26984,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="3">
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>209.9614218333585</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>111.0507855692099</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>61.51520314918844</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>6.291412538123694</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>262.9613793503843</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>198.4011987105128</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>146.1482613892421</v>
       </c>
       <c r="V7" t="n">
-        <v>122.3964755412623</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>45.87747300462138</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>82.52582970383943</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128.5311825185821</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>68.70517704842322</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964038</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964034</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964028</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443631</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.1875530044496</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176657</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961216</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041506</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304463</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565544</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927212</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.452637254091</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130947013</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647512</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446487</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104682</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
-        <v>14.6130612256295</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354904</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.78610555135411</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386733</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127091</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215741</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622995</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847359002</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724865</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813482</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855544</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458564</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710966</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095123</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677479</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361521</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680336</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081171</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990351</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629865</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822388</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557942</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196133</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171329</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426376</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065641</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469081</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235697</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337698</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336912</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892273</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351849</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443631</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.1875530044496</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176657</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961216</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041506</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304463</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565544</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927212</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.452637254091</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130947013</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647512</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446487</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104682</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
-        <v>14.6130612256295</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354904</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.78610555135411</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386733</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127091</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215741</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622995</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847359002</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724865</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813482</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855544</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458564</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710966</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095123</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677479</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361521</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680336</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081171</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990351</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629865</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822388</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557942</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196133</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171329</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426376</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065641</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469081</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235697</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337698</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336912</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892273</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351849</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443632</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.1875530044496</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176657</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961216</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041507</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304463</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565545</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927212</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540911</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130947014</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647512</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446487</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104682</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.6130612256295</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354905</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.78610555135411</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386733</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127091</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215741</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622995</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847359002</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724866</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813482</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855545</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458564</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710966</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095123</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677479</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361521</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680336</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081171</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990351</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629865</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822388</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557942</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196134</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217133</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263761</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065641</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469081</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235697</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.329038973377</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336912</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892274</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351851</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443635</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444963</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176659</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961219</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041511</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304468</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956555</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927218</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540917</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130947018</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647516</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446489</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104689</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562952</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354907</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354112</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386735</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127098</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215743</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622998</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847359006</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.558410972487</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813487</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855549</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458568</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710969</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095124</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677482</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361529</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680337</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081172</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990352</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298654</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822389</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557943</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196136</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171332</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263763</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065643</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469083</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235698</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337705</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336915</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.39802836989228</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351859</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>166.2502570412296</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35501,13 +35501,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>618.5494866776696</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35902,10 +35902,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>294.2627707717787</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>455.6595083608457</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>541.1395634276695</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556562</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
@@ -36528,10 +36528,10 @@
         <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187477</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>674.475064263752</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221054</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349844</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490697</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>406.4618263286093</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714625</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491601</v>
@@ -37008,7 +37008,7 @@
         <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415091</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303348</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109095</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221142</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081145</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951496</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109144</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841501885</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349898</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953162</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879405</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.257704956026</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.129440800468</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980149</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>369.5330580813513</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315261</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209242</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520637</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595517</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095699</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.441731308614</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.408767935245</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502441</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414419</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015157</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415091</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303348</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109095</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221142</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081145</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951496</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109144</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502064</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970348112</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490739</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005191</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594851</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504682</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980149</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.36370224111</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>250.7532875461383</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209242</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520637</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595517</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095699</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086139</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.408767935245</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502441</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414419</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015157</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415091</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303349</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109095</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221143</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304080973</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951497</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109145</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502064</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349901</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953163</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005191</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.257704956026</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504683</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980149</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>451.650017957815</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714634</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507513</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686913</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520634</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595517</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095699</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086139</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.408767935245</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502441</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414419</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015156</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415094</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130312</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.69106671091</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221148</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951503</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109149</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502068</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349921</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490759</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879408</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594855</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504687</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980153</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>471.3659450073409</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714636</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507535</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686925</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520638</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595518</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.34607700957</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086141</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352451</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502442</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.515490741442</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015157</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>632.6567220787863</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
